--- a/Daisy-xls/Content-Type-Mapping/ContentTypeMigration-ForMin.xlsx
+++ b/Daisy-xls/Content-Type-Mapping/ContentTypeMigration-ForMin.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="23820" windowHeight="10110" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="23820" windowHeight="10110" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="exception" sheetId="4" r:id="rId1"/>
@@ -15984,8 +15984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A49" sqref="A49:A53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16268,7 +16268,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A112" sqref="A112:D121"/>
     </sheetView>
   </sheetViews>
